--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--Complete-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--Complete-.xlsx
@@ -95,7 +95,7 @@
     <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
   </si>
   <si>
     <t>TC2</t>
@@ -104,16 +104,16 @@
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona um Competencias (Portfolio) da listagem</t>
   </si>
   <si>
-    <t>SYSTEM destaca o Competencias (Portfolio) selecionado na listagem</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir o Competencias (Portfolio) selecionado</t>
+    <t>SYSTEM destaca a Competencia (Portfolio) selecionada na listagem</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir a Competencia (Portfolio) selecionada</t>
   </si>
   <si>
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
@@ -122,7 +122,7 @@
     <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) com o Competencias (Portfolio) excluido</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
   </si>
   <si>
     <t>TC3</t>
@@ -131,7 +131,7 @@
     <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) sem o Competencias (Portfolio) excluido</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
   </si>
   <si>
     <t>TC4</t>
@@ -143,7 +143,7 @@
     <t>TC5</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Editar' para modificar o Competencias (Portfolio) selecionado</t>
+    <t>Lider de Pessoas clica na opcao 'Editar' para modificar a Competencia (Portfolio) selecionada</t>
   </si>
   <si>
     <t>SYSTEM apresenta o formulario para cadastro e alteracao de Competencias (Portfolio)</t>

--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--Complete-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--Complete-.xlsx
@@ -107,7 +107,7 @@
     <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
-    <t>Lider de Pessoas seleciona um Competencias (Portfolio) da listagem</t>
+    <t>Lider de Pessoas seleciona uma Competencias (Portfolio) da listagem</t>
   </si>
   <si>
     <t>SYSTEM destaca a Competencia (Portfolio) selecionada na listagem</t>
@@ -122,7 +122,7 @@
     <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) nao excluida</t>
   </si>
   <si>
     <t>TC3</t>
@@ -239,7 +239,7 @@
     <t>TC17</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar um nova Competencia (portfolio)</t>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar uma nova Competencia (portfolio)</t>
   </si>
   <si>
     <t>TC18</t>
